--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,28 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E55F874-1E8C-497F-9DB0-5AE434367C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFBC7A-AB7B-47F5-B243-7C28FEF8CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A" sheetId="3" r:id="rId1"/>
     <sheet name="2.3E-8" sheetId="4" r:id="rId2"/>
+    <sheet name="2.3C-3" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C-3'!$B$22:$O$22</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E-8'!$B$11:$G$11</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C-3'!$P$3:$P$21</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E-8'!$H$10</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A'!$K$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
@@ -49,28 +57,40 @@
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A'!$I$2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C-3'!$R$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E-8'!$H$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
@@ -89,6 +109,7 @@
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A'!$K$3:$K$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C-3'!$R$3:$R$21</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E-8'!$J$10</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A'!$K$11:$K$14</definedName>
@@ -107,24 +128,34 @@
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">'2.3E-8'!$J$9</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -159,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -333,13 +364,115 @@
   </si>
   <si>
     <t>Razão de mistura A/B II</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Valor do empréstimo Z-1</t>
+  </si>
+  <si>
+    <t>Valor do empréstimo Z-2</t>
+  </si>
+  <si>
+    <t>Valor do empréstimo Z-3</t>
+  </si>
+  <si>
+    <t>Valor do empréstimo Z-4</t>
+  </si>
+  <si>
+    <t>Participação Total P1-1</t>
+  </si>
+  <si>
+    <t>Participação Total P2-1</t>
+  </si>
+  <si>
+    <t>Participação Total P1-2</t>
+  </si>
+  <si>
+    <t>Participação Total P2-2</t>
+  </si>
+  <si>
+    <t>Participação Total P1-3</t>
+  </si>
+  <si>
+    <t>Participação Total P2-3</t>
+  </si>
+  <si>
+    <t>Participação Total P1-4</t>
+  </si>
+  <si>
+    <t>Participação Total P2-4</t>
+  </si>
+  <si>
+    <t>Participação Total P1-5</t>
+  </si>
+  <si>
+    <t>Participação Total P2-5</t>
+  </si>
+  <si>
+    <t>Valor total P1</t>
+  </si>
+  <si>
+    <t>Valor total P2</t>
+  </si>
+  <si>
+    <t>Valor total P3</t>
+  </si>
+  <si>
+    <t>Valor total P4</t>
+  </si>
+  <si>
+    <t>Valor total P5</t>
+  </si>
+  <si>
+    <t>P1-1</t>
+  </si>
+  <si>
+    <t>P2-1</t>
+  </si>
+  <si>
+    <t>Z-1</t>
+  </si>
+  <si>
+    <t>P1-2</t>
+  </si>
+  <si>
+    <t>P2-2</t>
+  </si>
+  <si>
+    <t>Z-2</t>
+  </si>
+  <si>
+    <t>P1-3</t>
+  </si>
+  <si>
+    <t>P2-3</t>
+  </si>
+  <si>
+    <t>Z-3</t>
+  </si>
+  <si>
+    <t>P1-4</t>
+  </si>
+  <si>
+    <t>P2-4</t>
+  </si>
+  <si>
+    <t>Z-4</t>
+  </si>
+  <si>
+    <t>P1-5</t>
+  </si>
+  <si>
+    <t>P2-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +555,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -455,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -483,6 +629,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -493,7 +641,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -782,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,14 +1020,14 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="18"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -914,12 +1067,12 @@
       <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="18"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -959,12 +1112,12 @@
       <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="18"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1004,12 +1157,12 @@
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="18"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1049,12 +1202,12 @@
       <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="18"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1094,10 +1247,10 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="15"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1138,12 +1291,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="18"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1184,12 +1337,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="18"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1229,7 +1382,7 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1270,7 +1423,7 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="15"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1311,7 +1464,7 @@
       <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1354,7 +1507,7 @@
       <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="15"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1395,7 +1548,7 @@
       <c r="K14" s="6">
         <v>600</v>
       </c>
-      <c r="N14" s="15"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1436,7 +1589,7 @@
       <c r="K15" s="6">
         <v>25</v>
       </c>
-      <c r="N15" s="15"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1477,7 +1630,7 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,7 +1668,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1553,7 +1706,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="15"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1581,23 +1734,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="15"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="15"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="15"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="17" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1607,7 +1760,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1628,7 +1781,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1641,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263368B4-FA2B-4D67-BCBF-3F3EBFF15146}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,6 +2217,1267 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>-3.1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>-2.5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>-1.5</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15">
+        <v>5</v>
+      </c>
+      <c r="O2" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="P2">
+        <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="S2" t="e">
+        <f ca="1">_xludf.MAX($R$21)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>COUNT($B$22:$O$22)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <f t="array" ref="S4">$P$3:$P$21&lt;=$R$3:$R$21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <f>D22*D2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3.1</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <f>(R17-P17)*1.0173+1-(1.0182*D22*D2)</f>
+        <v>2.0173000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3.1</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>-1.5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>-1.5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <f>(R18-P18)*1.0173+1-(1.0182*G22*G2)</f>
+        <v>3.0521992900000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.1</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>-1.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-1.8</v>
+      </c>
+      <c r="L20">
+        <v>-1.8</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <f>(R19-P19)*1.0173+1-(1.0182*J22*J2)</f>
+        <v>5.6309523377170017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3.1</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>-1.5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-1.8</v>
+      </c>
+      <c r="L21">
+        <v>-1.8</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>-5</v>
+      </c>
+      <c r="O21">
+        <v>-2.8</v>
+      </c>
+      <c r="P21">
+        <v>-12.899999999999999</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21">
+        <f>-(P21)+1+(R20-P20)*1.0173-(1.0182*M22*M2)</f>
+        <v>24.816597813159504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="B3:O21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFBC7A-AB7B-47F5-B243-7C28FEF8CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A874B-8C81-456C-A048-ED179930D43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,13 +520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -564,6 +557,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,16 +621,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -637,6 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,14 +1021,14 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="17"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1067,12 +1068,12 @@
       <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="17"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1112,12 +1113,12 @@
       <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="17"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1157,12 +1158,12 @@
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="17"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1202,12 +1203,12 @@
       <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="17"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1247,10 +1248,10 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1291,12 +1292,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="17"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1337,12 +1338,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="17"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1382,7 +1383,7 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1423,7 +1424,7 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1464,7 +1465,7 @@
       <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1507,7 +1508,7 @@
       <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1548,7 +1549,7 @@
       <c r="K14" s="6">
         <v>600</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1589,7 +1590,7 @@
       <c r="K15" s="6">
         <v>25</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1630,7 +1631,7 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1668,7 +1669,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1706,7 +1707,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1734,23 +1735,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="17"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="17"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="17"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="17"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1760,7 +1761,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="17"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1795,7 +1796,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,19 +1844,19 @@
       <c r="C2" s="10">
         <v>10</v>
       </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
         <v>10031.91489361702</v>
       </c>
@@ -1886,7 +1887,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="18">
         <v>450.00000000000011</v>
       </c>
       <c r="I3" t="s">
@@ -1922,7 +1923,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="18">
         <v>700</v>
       </c>
       <c r="I4" t="s">
@@ -1958,7 +1959,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="18">
         <v>428.72340425532821</v>
       </c>
       <c r="I5" t="s">
@@ -1994,7 +1995,7 @@
       <c r="G6">
         <v>89</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="18">
         <v>3.637978807091713E-12</v>
       </c>
       <c r="I6" t="s">
@@ -2030,7 +2031,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="18">
         <v>-1644.6808510638289</v>
       </c>
       <c r="I7" t="s">
@@ -2066,7 +2067,7 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="18">
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="I8" t="s">
@@ -2102,7 +2103,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="18">
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
@@ -2138,7 +2139,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="18">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -2230,7 +2231,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,49 +2296,49 @@
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>-1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>-3</v>
       </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
         <v>-3.1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>-2.5</v>
       </c>
-      <c r="G2" s="15">
-        <v>1</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
         <v>-1.5</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>1.5</v>
       </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
         <v>1.8</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>1.8</v>
       </c>
-      <c r="M2" s="15">
-        <v>1</v>
-      </c>
-      <c r="N2" s="15">
+      <c r="M2" s="14">
+        <v>1</v>
+      </c>
+      <c r="N2" s="14">
         <v>5</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>2.8</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="18">
         <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
         <v>12.899999999999999</v>
       </c>
@@ -2392,7 +2393,7 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="18">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -2452,7 +2453,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="18">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -2512,7 +2513,7 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="18">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -2572,7 +2573,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="18">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -2632,7 +2633,7 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="18">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -2688,10 +2689,10 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16" t="s">
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R8">
@@ -2744,10 +2745,10 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16" t="s">
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R9">
@@ -2800,10 +2801,10 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16" t="s">
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R10">
@@ -2856,10 +2857,10 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16" t="s">
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R11">
@@ -2912,10 +2913,10 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="16" t="s">
+      <c r="P12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R12">
@@ -2968,7 +2969,7 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="18">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
@@ -3024,7 +3025,7 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="18">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
@@ -3080,7 +3081,7 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="18">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
@@ -3136,7 +3137,7 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="18">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
@@ -3192,10 +3193,10 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16" t="s">
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="R17">
@@ -3249,7 +3250,7 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="18">
         <v>0</v>
       </c>
       <c r="Q18" t="s">
@@ -3306,7 +3307,7 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="18">
         <v>-1.5</v>
       </c>
       <c r="Q19" t="s">
@@ -3363,7 +3364,7 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="18">
         <v>-5.0999999999999996</v>
       </c>
       <c r="Q20" t="s">
@@ -3420,7 +3421,7 @@
       <c r="O21">
         <v>-2.8</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="18">
         <v>-12.899999999999999</v>
       </c>
       <c r="Q21" t="s">
@@ -3476,7 +3477,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A874B-8C81-456C-A048-ED179930D43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706739B2-F810-43A2-BB99-4C619DF2D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -631,13 +631,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,14 +1021,14 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="18"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1068,12 +1068,12 @@
       <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="18"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1113,12 +1113,12 @@
       <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1158,12 +1158,12 @@
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="18"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1203,12 +1203,12 @@
       <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="18"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1248,10 +1248,10 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1292,12 +1292,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="18"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1338,12 +1338,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="18"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1383,7 +1383,7 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1424,7 +1424,7 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1465,7 +1465,7 @@
       <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1508,7 +1508,7 @@
       <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1549,7 +1549,7 @@
       <c r="K14" s="6">
         <v>600</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1590,7 +1590,7 @@
       <c r="K15" s="6">
         <v>25</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1631,7 +1631,7 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="17"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="16"/>
+      <c r="N17" s="17"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="17"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1735,23 +1735,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="16"/>
+      <c r="N20" s="17"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="16"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="16"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="17" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1761,7 +1761,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1856,7 +1856,7 @@
       <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="16">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
         <v>10031.91489361702</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <v>450.00000000000011</v>
       </c>
       <c r="I3" t="s">
@@ -1923,7 +1923,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>700</v>
       </c>
       <c r="I4" t="s">
@@ -1959,7 +1959,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>428.72340425532821</v>
       </c>
       <c r="I5" t="s">
@@ -1995,7 +1995,7 @@
       <c r="G6">
         <v>89</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>3.637978807091713E-12</v>
       </c>
       <c r="I6" t="s">
@@ -2031,7 +2031,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>-1644.6808510638289</v>
       </c>
       <c r="I7" t="s">
@@ -2067,7 +2067,7 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="I8" t="s">
@@ -2103,7 +2103,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
@@ -2139,7 +2139,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -2231,7 +2231,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2338,7 @@
       <c r="O2" s="14">
         <v>2.8</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="16">
         <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
         <v>12.899999999999999</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="16">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -2453,7 +2453,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="16">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -2513,7 +2513,7 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="16">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
         <v>32767</v>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="16">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -2689,7 +2689,7 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="16">
         <v>0</v>
       </c>
       <c r="Q8" s="15" t="s">
@@ -2745,7 +2745,7 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="16">
         <v>0</v>
       </c>
       <c r="Q9" s="15" t="s">
@@ -2801,7 +2801,7 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="16">
         <v>0</v>
       </c>
       <c r="Q10" s="15" t="s">
@@ -2857,7 +2857,7 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="16">
         <v>0</v>
       </c>
       <c r="Q11" s="15" t="s">
@@ -2913,7 +2913,7 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="16">
         <v>1</v>
       </c>
       <c r="Q12" s="15" t="s">
@@ -2969,7 +2969,7 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="16">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
@@ -3025,7 +3025,7 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="16">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
@@ -3081,7 +3081,7 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="16">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
@@ -3137,7 +3137,7 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="16">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
@@ -3193,7 +3193,7 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="16">
         <v>0</v>
       </c>
       <c r="Q17" s="15" t="s">
@@ -3250,7 +3250,7 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18" s="16">
         <v>0</v>
       </c>
       <c r="Q18" t="s">
@@ -3307,7 +3307,7 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="16">
         <v>-1.5</v>
       </c>
       <c r="Q19" t="s">
@@ -3364,7 +3364,7 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="16">
         <v>-5.0999999999999996</v>
       </c>
       <c r="Q20" t="s">
@@ -3421,7 +3421,7 @@
       <c r="O21">
         <v>-2.8</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="16">
         <v>-12.899999999999999</v>
       </c>
       <c r="Q21" t="s">

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,44 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706739B2-F810-43A2-BB99-4C619DF2D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80BA8A-D39F-46FD-9068-9073F80039DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A" sheetId="3" r:id="rId1"/>
     <sheet name="2.3E-8" sheetId="4" r:id="rId2"/>
     <sheet name="2.3C-3" sheetId="5" r:id="rId3"/>
+    <sheet name="9.1A - 7" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C-3'!$B$22:$O$22</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E-8'!$B$11:$G$11</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C-3'!$P$3:$P$21</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E-8'!$H$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'9.1A - 7'!$J$3</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A'!$K$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3E-8'!$H$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3E-8'!$H$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'9.1A - 7'!$J$4</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A'!$F$19</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3E-8'!$H$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'9.1A - 7'!$J$6</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3E-8'!$H$6</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
@@ -56,49 +67,65 @@
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">'2.3E-8'!$H$9</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A'!$I$2</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C-3'!$R$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E-8'!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
@@ -111,13 +138,17 @@
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A'!$K$3:$K$6</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C-3'!$R$3:$R$21</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E-8'!$J$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'9.1A - 7'!$L$3</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A'!$K$11:$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3E-8'!$J$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binário"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3E-8'!$J$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'9.1A - 7'!$L$4</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A'!$K$8</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3E-8'!$J$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'9.1A - 7'!$L$6</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A'!$K$15</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3E-8'!$J$6</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A'!$K$9</definedName>
@@ -130,33 +161,43 @@
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -466,13 +507,52 @@
   </si>
   <si>
     <t>P2-5</t>
+  </si>
+  <si>
+    <t>AFT</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>JOE</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>OSF</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>VLR LETRA I</t>
+  </si>
+  <si>
+    <t>VLR LETRA II</t>
+  </si>
+  <si>
+    <t>VLR LETRA III</t>
+  </si>
+  <si>
+    <t>USO DE VARIAVEIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,14 +587,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,6 +641,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -602,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -620,29 +716,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -936,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,20 +1128,20 @@
       <c r="H2" s="6">
         <v>-7</v>
       </c>
-      <c r="I2" s="9" cm="1">
+      <c r="I2" s="19" cm="1">
         <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
         <v>8577</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="17"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1059,7 +1172,7 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="19">
         <v>121</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1068,12 +1181,12 @@
       <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="16"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="17"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1104,7 +1217,7 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="19">
         <v>140</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -1113,12 +1226,12 @@
       <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="17"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1149,7 +1262,7 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="19">
         <v>223</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1158,12 +1271,12 @@
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="17"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1194,7 +1307,7 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="19">
         <v>313</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1203,12 +1316,12 @@
       <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="17"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1239,7 +1352,7 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="19">
         <v>25</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1248,10 +1361,10 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1282,7 +1395,7 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="19">
         <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1292,12 +1405,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="17"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1328,7 +1441,7 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="19">
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1338,12 +1451,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="17"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1374,7 +1487,7 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="19">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1383,7 +1496,7 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1415,7 +1528,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="19">
         <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1424,7 +1537,7 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1456,7 +1569,7 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="19">
         <v>140</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -1465,7 +1578,7 @@
       <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1499,7 +1612,7 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="19">
         <v>223</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1508,7 +1621,7 @@
       <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1540,7 +1653,7 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="19">
         <v>313</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -1549,7 +1662,7 @@
       <c r="K14" s="6">
         <v>600</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1581,7 +1694,7 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="19">
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -1590,7 +1703,7 @@
       <c r="K15" s="6">
         <v>25</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1622,7 +1735,7 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="19">
         <v>1.575</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -1631,7 +1744,7 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1659,7 +1772,7 @@
       <c r="H17" s="6">
         <v>0.25</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="19">
         <v>34.44</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -1669,7 +1782,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1697,7 +1810,7 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="19">
         <v>34.44</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -1707,7 +1820,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1735,23 +1848,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="17"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="17"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="17"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="17"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1761,7 +1874,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="17"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1782,7 +1895,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1796,7 +1909,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,28 +1921,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1838,25 +1951,25 @@
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>7</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
         <v>10031.91489361702</v>
       </c>
@@ -1887,7 +2000,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>450.00000000000011</v>
       </c>
       <c r="I3" t="s">
@@ -1923,7 +2036,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>700</v>
       </c>
       <c r="I4" t="s">
@@ -1959,7 +2072,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>428.72340425532821</v>
       </c>
       <c r="I5" t="s">
@@ -1995,7 +2108,7 @@
       <c r="G6">
         <v>89</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>3.637978807091713E-12</v>
       </c>
       <c r="I6" t="s">
@@ -2031,7 +2144,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>-1644.6808510638289</v>
       </c>
       <c r="I7" t="s">
@@ -2067,7 +2180,7 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="I8" t="s">
@@ -2103,7 +2216,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
@@ -2139,7 +2252,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>0</v>
       </c>
       <c r="I10" t="s">
@@ -2218,7 +2331,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2230,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,49 +2409,49 @@
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>-1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>-3</v>
       </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
         <v>-3.1</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-2.5</v>
       </c>
-      <c r="G2" s="14">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14">
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
         <v>-1.5</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>1.5</v>
       </c>
-      <c r="J2" s="14">
-        <v>1</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13">
         <v>1.8</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>1.8</v>
       </c>
-      <c r="M2" s="14">
-        <v>1</v>
-      </c>
-      <c r="N2" s="14">
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
         <v>5</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>2.8</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
         <v>12.899999999999999</v>
       </c>
@@ -2393,7 +2506,7 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -2453,7 +2566,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -2513,7 +2626,7 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -2573,7 +2686,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
@@ -2633,7 +2746,7 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -2689,10 +2802,10 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="15" t="s">
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R8">
@@ -2745,10 +2858,10 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15" t="s">
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R9">
@@ -2801,10 +2914,10 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R10">
@@ -2857,10 +2970,10 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15" t="s">
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R11">
@@ -2913,10 +3026,10 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="15" t="s">
+      <c r="P12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R12">
@@ -2969,7 +3082,7 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
@@ -3025,7 +3138,7 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
@@ -3081,7 +3194,7 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
@@ -3137,7 +3250,7 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
@@ -3193,10 +3306,10 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15" t="s">
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="R17">
@@ -3250,7 +3363,7 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="15">
         <v>0</v>
       </c>
       <c r="Q18" t="s">
@@ -3307,7 +3420,7 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <v>-1.5</v>
       </c>
       <c r="Q19" t="s">
@@ -3364,7 +3477,7 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>-5.0999999999999996</v>
       </c>
       <c r="Q20" t="s">
@@ -3375,7 +3488,7 @@
         <v>5.6309523377170017</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>77</v>
       </c>
@@ -3421,13 +3534,13 @@
       <c r="O21">
         <v>-2.8</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>-12.899999999999999</v>
       </c>
       <c r="Q21" t="s">
         <v>12</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="18">
         <f>-(P21)+1+(R20-P20)*1.0173-(1.0182*M22*M2)</f>
         <v>24.816597813159504</v>
       </c>
@@ -3477,8 +3590,351 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C3D8-732F-45FC-8316-410DB9A7B05E}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="20">
+        <f>SUM(B3:B5)</f>
+        <v>27</v>
+      </c>
+      <c r="C2" s="20">
+        <f>SUM(C3:C5)</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="20">
+        <f>SUM(D3:D5)</f>
+        <v>43</v>
+      </c>
+      <c r="E2" s="20">
+        <f>SUM(E3:E5)</f>
+        <v>27</v>
+      </c>
+      <c r="F2" s="20">
+        <f>SUM(F3:F5)</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="20">
+        <f>SUM(G3:G5)</f>
+        <v>29</v>
+      </c>
+      <c r="H2" s="20">
+        <f>SUM(H3:H5)</f>
+        <v>40</v>
+      </c>
+      <c r="I2" s="20">
+        <f>SUM(I3:I5)</f>
+        <v>30</v>
+      </c>
+      <c r="J2" s="19">
+        <f t="array" ref="J2:J6">MMULT(B2:I6,TRANSPOSE(B7:I7))</f>
+        <v>167</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" t="e">
+        <f ca="1">_xludf.MAX($J$2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6">
+        <v>11</v>
+      </c>
+      <c r="J3" s="19">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="18">
+        <f>J4-1</f>
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <f>COUNT($B$7:$I$7)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="J4" s="19">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="18">
+        <f>J5-1</f>
+        <v>62</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="array" ref="M4">($B$7:$I$7=0)+($B$7:$I$7=1)=1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>14</v>
+      </c>
+      <c r="J5" s="19">
+        <v>63</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" t="b">
+        <f>$J$3&lt;=$L$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>5</v>
+      </c>
+      <c r="M6" t="b">
+        <f>$J$4&lt;=$L$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="6"/>
+      <c r="M7" t="b">
+        <f>$J$6=$L$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="6"/>
+      <c r="M8">
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="6"/>
+      <c r="M9">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B6:I9 A6:A7 B2:I2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80BA8A-D39F-46FD-9068-9073F80039DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C35998-ADFF-4BC1-8C7A-549C46A940A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A" sheetId="3" r:id="rId1"/>
@@ -727,25 +727,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1049,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -1128,20 +1123,20 @@
       <c r="H2" s="6">
         <v>-7</v>
       </c>
-      <c r="I2" s="19" cm="1">
+      <c r="I2" s="17" cm="1">
         <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
         <v>8577</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="20"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1172,7 +1167,7 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="17">
         <v>121</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1181,12 +1176,12 @@
       <c r="K3" s="6">
         <v>100</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="20"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1217,7 +1212,7 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>140</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -1226,12 +1221,12 @@
       <c r="K4" s="6">
         <v>125</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="20"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1262,7 +1257,7 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="17">
         <v>223</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1271,12 +1266,12 @@
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="20"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1307,7 +1302,7 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <v>313</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1316,12 +1311,12 @@
       <c r="K6" s="6">
         <v>300</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="20"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1352,7 +1347,7 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>25</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -1361,10 +1356,10 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1395,7 +1390,7 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -1405,12 +1400,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="20"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1441,7 +1436,7 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -1451,12 +1446,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="20"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1487,7 +1482,7 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -1496,7 +1491,7 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1528,7 +1523,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -1537,7 +1532,7 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="N11" s="16"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1569,7 +1564,7 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>140</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -1578,7 +1573,7 @@
       <c r="K12" s="6">
         <v>190</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1612,7 +1607,7 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>223</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1621,7 +1616,7 @@
       <c r="K13" s="6">
         <v>260</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1653,7 +1648,7 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="17">
         <v>313</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -1662,7 +1657,7 @@
       <c r="K14" s="6">
         <v>600</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1694,7 +1689,7 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
@@ -1703,7 +1698,7 @@
       <c r="K15" s="6">
         <v>25</v>
       </c>
-      <c r="N15" s="16"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1735,7 +1730,7 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>1.575</v>
       </c>
       <c r="J16" s="6" t="s">
@@ -1744,7 +1739,7 @@
       <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1772,7 +1767,7 @@
       <c r="H17" s="6">
         <v>0.25</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <v>34.44</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -1782,7 +1777,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="16"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1810,7 +1805,7 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="17">
         <v>34.44</v>
       </c>
       <c r="J18" s="6" t="s">
@@ -1820,7 +1815,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1848,23 +1843,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="16"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="16"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="16"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="19" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1874,7 +1869,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1895,7 +1890,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2331,7 +2326,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2343,14 +2338,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3540,7 +3536,7 @@
       <c r="Q21" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="16">
         <f>-(P21)+1+(R20-P20)*1.0173-(1.0182*M22*M2)</f>
         <v>24.816597813159504</v>
       </c>
@@ -3592,7 +3588,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3604,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C3D8-732F-45FC-8316-410DB9A7B05E}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3649,39 +3645,39 @@
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="20">
-        <f>SUM(B3:B5)</f>
+      <c r="B2" s="18">
+        <f t="shared" ref="B2:I2" si="0">SUM(B3:B5)</f>
         <v>27</v>
       </c>
-      <c r="C2" s="20">
-        <f>SUM(C3:C5)</f>
+      <c r="C2" s="18">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D2" s="20">
-        <f>SUM(D3:D5)</f>
+      <c r="D2" s="18">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E2" s="20">
-        <f>SUM(E3:E5)</f>
+      <c r="E2" s="18">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F2" s="20">
-        <f>SUM(F3:F5)</f>
+      <c r="F2" s="18">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G2" s="20">
-        <f>SUM(G3:G5)</f>
+      <c r="G2" s="18">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H2" s="20">
-        <f>SUM(H3:H5)</f>
+      <c r="H2" s="18">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I2" s="20">
-        <f>SUM(I3:I5)</f>
+      <c r="I2" s="18">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="17">
         <f t="array" ref="J2:J6">MMULT(B2:I6,TRANSPOSE(B7:I7))</f>
         <v>167</v>
       </c>
@@ -3719,13 +3715,13 @@
       <c r="I3" s="6">
         <v>11</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="17">
         <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="16">
         <f>J4-1</f>
         <v>55</v>
       </c>
@@ -3762,13 +3758,13 @@
       <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f>J5-1</f>
         <v>62</v>
       </c>
@@ -3805,10 +3801,10 @@
       <c r="I5" s="6">
         <v>14</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <v>63</v>
       </c>
-      <c r="L5" s="18"/>
+      <c r="L5" s="16"/>
       <c r="M5" t="b">
         <f>$J$3&lt;=$L$3</f>
         <v>1</v>
@@ -3842,13 +3838,13 @@
       <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="16">
         <v>5</v>
       </c>
       <c r="M6" t="b">
@@ -3882,7 +3878,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="6"/>
       <c r="M7" t="b">
         <f>$J$6=$L$6</f>
@@ -3899,7 +3895,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="6"/>
       <c r="M8">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -3916,7 +3912,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="6"/>
       <c r="M9">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -3924,18 +3920,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:I9 A6:A7 B2:I2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A6:I9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C35998-ADFF-4BC1-8C7A-549C46A940A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A4DC5-E61A-4039-BD57-55559FED48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.3A" sheetId="3" r:id="rId1"/>
+    <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
     <sheet name="2.3E-8" sheetId="4" r:id="rId2"/>
-    <sheet name="2.3C-3" sheetId="5" r:id="rId3"/>
+    <sheet name="2.3C - 3" sheetId="5" r:id="rId3"/>
     <sheet name="9.1A - 7" sheetId="6" r:id="rId4"/>
+    <sheet name="9.1B - 3" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C-3'!$B$22:$O$22</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C - 3'!$B$22:$O$22</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E-8'!$B$11:$G$11</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -43,29 +44,29 @@
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C-3'!$P$3:$P$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C - 3'!$P$3:$P$21</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E-8'!$H$10</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'9.1A - 7'!$J$3</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A'!$K$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A'!$B$19:$E$19</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3E-8'!$H$3</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A'!$B$19:$H$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3E-8'!$H$4</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'9.1A - 7'!$J$4</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A'!$F$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A - 4'!$F$19</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3E-8'!$H$5</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'9.1A - 7'!$J$6</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3E-8'!$H$6</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'2.3E-8'!$H$7</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3A'!$G$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">'2.3E-8'!$H$8</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3A'!$H$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3A - 4'!$H$19</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">'2.3E-8'!$H$9</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A'!$I$16</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A - 4'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -100,8 +101,8 @@
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A'!$I$2</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C-3'!$R$21</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A - 4'!$I$2</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C - 3'!$R$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E-8'!$H$2</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -135,29 +136,29 @@
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A'!$K$3:$K$6</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C-3'!$R$3:$R$21</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A - 4'!$K$3:$K$6</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C - 3'!$R$3:$R$21</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E-8'!$J$10</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'9.1A - 7'!$L$3</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A'!$K$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A'!$K$11:$K$14</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A - 4'!$K$11:$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3E-8'!$J$3</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binário"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3E-8'!$J$4</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'9.1A - 7'!$L$4</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A'!$K$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A - 4'!$K$8</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3E-8'!$J$5</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'9.1A - 7'!$L$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A'!$K$15</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A - 4'!$K$15</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3E-8'!$J$6</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A'!$K$9</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A - 4'!$K$9</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'2.3E-8'!$J$7</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3A'!$K$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3A - 4'!$K$7</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">'2.3E-8'!$J$8</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3A'!$K$10</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3A - 4'!$K$10</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">'2.3E-8'!$J$9</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A'!$K$16</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A - 4'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -231,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -546,13 +547,31 @@
   </si>
   <si>
     <t>USO DE VARIAVEIS</t>
+  </si>
+  <si>
+    <t>EST CID 1</t>
+  </si>
+  <si>
+    <t>EST CID 2</t>
+  </si>
+  <si>
+    <t>EST CID 3</t>
+  </si>
+  <si>
+    <t>EST CID 4</t>
+  </si>
+  <si>
+    <t>EST CID 5</t>
+  </si>
+  <si>
+    <t>EST CID 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +684,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -698,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,11 +763,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1044,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +1930,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2326,7 +2366,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2338,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -3588,7 +3628,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3921,12 +3961,321 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:I9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <f t="array" ref="H2:H7">MMULT(B2:G7,TRANSPOSE(B8:G8))</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" t="e">
+        <f ca="1">_xludf.MIN($J$8)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>COUNT($B$8:$G$8)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="array" ref="K4">($B$8:$G$8=0)+($B$8:$G$8=1)=1</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="array" ref="K5">$H$2:$H$7&gt;=$J$2:$J$7</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <f>SUM(B8:G8)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G7 A8:H8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:I2 I8 H3:I7">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A4DC5-E61A-4039-BD57-55559FED48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB489120-43AA-4AA9-BC0A-96D7C9710224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
-    <sheet name="2.3E-8" sheetId="4" r:id="rId2"/>
+    <sheet name="2.3E - 8" sheetId="4" r:id="rId2"/>
     <sheet name="2.3C - 3" sheetId="5" r:id="rId3"/>
     <sheet name="9.1A - 7" sheetId="6" r:id="rId4"/>
     <sheet name="9.1B - 3" sheetId="7" r:id="rId5"/>
@@ -22,105 +22,127 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C - 3'!$B$22:$O$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E-8'!$B$11:$G$11</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E - 8'!$B$11:$G$11</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C - 3'!$P$3:$P$21</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E-8'!$H$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E - 8'!$H$10</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'9.1A - 7'!$J$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3E-8'!$H$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3E - 8'!$H$3</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'9.1B - 3'!$H$2:$H$7</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3E-8'!$H$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3E - 8'!$H$4</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'9.1A - 7'!$J$4</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A - 4'!$F$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3E-8'!$H$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3E - 8'!$H$5</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'9.1A - 7'!$J$6</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3E-8'!$H$6</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3E - 8'!$H$6</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'2.3E-8'!$H$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'2.3E - 8'!$H$7</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'2.3E-8'!$H$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'2.3E - 8'!$H$8</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3A - 4'!$H$19</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'2.3E-8'!$H$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'2.3E - 8'!$H$9</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A - 4'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A - 4'!$I$2</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C - 3'!$R$21</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E-8'!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E - 8'!$H$2</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1B - 3'!$J$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
@@ -138,67 +160,79 @@
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A - 4'!$K$3:$K$6</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C - 3'!$R$3:$R$21</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E-8'!$J$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E - 8'!$J$10</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'9.1A - 7'!$L$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"binário"</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A - 4'!$K$11:$K$14</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3E-8'!$J$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3E - 8'!$J$3</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'9.1B - 3'!$J$2:$J$7</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3E-8'!$J$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3E - 8'!$J$4</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'9.1A - 7'!$L$4</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A - 4'!$K$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3E-8'!$J$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3E - 8'!$J$5</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'9.1A - 7'!$L$6</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A - 4'!$K$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3E-8'!$J$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3E - 8'!$J$6</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A - 4'!$K$9</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'2.3E-8'!$J$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'2.3E - 8'!$J$7</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3A - 4'!$K$7</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'2.3E-8'!$J$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'2.3E - 8'!$J$8</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3A - 4'!$K$10</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'2.3E-8'!$J$9</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'2.3E - 8'!$J$9</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A - 4'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -571,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,13 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -635,13 +662,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,6 +712,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -725,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -743,34 +795,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1084,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,41 +1222,41 @@
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="20">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="20">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="20">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="20">
         <v>-10</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="20">
         <v>15</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="20">
         <v>-7</v>
       </c>
-      <c r="I2" s="17" cm="1">
+      <c r="I2" s="15" cm="1">
         <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
         <v>8577</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="19"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1207,21 +1287,21 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>121</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="22">
         <v>100</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="19"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1252,21 +1332,21 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>140</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="22">
         <v>125</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="19"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1297,21 +1377,21 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>223</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="22">
         <v>75</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="19"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1342,21 +1422,21 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>313</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="22">
         <v>300</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="19"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1387,19 +1467,19 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>25</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19"/>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1430,22 +1510,22 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="22">
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>35</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="19"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1476,22 +1556,22 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="22">
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="19"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1522,16 +1602,16 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="22">
         <v>200</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1563,16 +1643,16 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="22">
         <v>200</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1604,16 +1684,16 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>140</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="22">
         <v>190</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1647,16 +1727,16 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <v>223</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="22">
         <v>260</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1688,16 +1768,16 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <v>313</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="22">
         <v>600</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1729,16 +1809,16 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="22">
         <v>25</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1770,16 +1850,16 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <v>1.575</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="22">
         <v>2</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1807,17 +1887,17 @@
       <c r="H17" s="6">
         <v>0.25</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="15">
         <v>34.44</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="22">
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1845,17 +1925,17 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>34.44</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="22">
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>34.44</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1883,23 +1963,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="19"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="19"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="19"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="19"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1909,7 +1989,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="19"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1930,7 +2010,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1944,7 +2024,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J3" sqref="J3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,28 +2036,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1986,25 +2066,25 @@
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="23">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="23">
         <v>10</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
         <v>10031.91489361702</v>
       </c>
@@ -2035,13 +2115,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>450.00000000000011</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="24">
         <v>450</v>
       </c>
       <c r="K3">
@@ -2071,13 +2151,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>700</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="24">
         <v>700</v>
       </c>
       <c r="K4" t="b">
@@ -2107,13 +2187,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>428.72340425532821</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="24">
         <v>0</v>
       </c>
       <c r="K5" t="b">
@@ -2143,13 +2223,13 @@
       <c r="G6">
         <v>89</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>3.637978807091713E-12</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="24">
         <v>0</v>
       </c>
       <c r="K6" t="b">
@@ -2179,13 +2259,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>-1644.6808510638289</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="24">
         <v>0</v>
       </c>
       <c r="K7" t="b">
@@ -2215,13 +2295,13 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>4.5474735088646412E-13</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="24">
         <v>0</v>
       </c>
       <c r="K8" t="b">
@@ -2251,13 +2331,13 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="24">
         <v>0</v>
       </c>
       <c r="K9" t="b">
@@ -2287,13 +2367,13 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="24">
         <v>0</v>
       </c>
       <c r="K10" t="b">
@@ -2366,7 +2446,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2379,7 +2459,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,49 +2525,49 @@
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="23">
         <v>-1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="23">
         <v>-3</v>
       </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
         <v>-3.1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="23">
         <v>-2.5</v>
       </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23">
         <v>-1.5</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="23">
         <v>1.5</v>
       </c>
-      <c r="J2" s="13">
-        <v>1</v>
-      </c>
-      <c r="K2" s="13">
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23">
         <v>1.8</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="23">
         <v>1.8</v>
       </c>
-      <c r="M2" s="13">
-        <v>1</v>
-      </c>
-      <c r="N2" s="13">
+      <c r="M2" s="23">
+        <v>1</v>
+      </c>
+      <c r="N2" s="23">
         <v>5</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="23">
         <v>2.8</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="13">
         <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
         <v>12.899999999999999</v>
       </c>
@@ -2542,13 +2622,13 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="13">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="24">
         <v>1</v>
       </c>
       <c r="S3">
@@ -2602,13 +2682,13 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="13">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="24">
         <v>1</v>
       </c>
       <c r="S4" t="b">
@@ -2662,13 +2742,13 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
         <v>12</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="24">
         <v>1</v>
       </c>
       <c r="S5">
@@ -2722,13 +2802,13 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="13">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="24">
         <v>1</v>
       </c>
       <c r="S6">
@@ -2782,13 +2862,13 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>12</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2838,13 +2918,13 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14" t="s">
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2894,13 +2974,13 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2950,13 +3030,13 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3006,13 +3086,13 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14" t="s">
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3062,13 +3142,13 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14" t="s">
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3118,13 +3198,13 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="13">
         <v>1</v>
       </c>
       <c r="Q13" t="s">
         <v>12</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3174,13 +3254,13 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="13">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
         <v>12</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3230,13 +3310,13 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="13">
         <v>1</v>
       </c>
       <c r="Q15" t="s">
         <v>12</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3286,13 +3366,13 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="13">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
         <v>12</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3342,13 +3422,13 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14" t="s">
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="24">
         <f>D22*D2+1</f>
         <v>1</v>
       </c>
@@ -3399,13 +3479,13 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="13">
         <v>0</v>
       </c>
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="24">
         <f>(R17-P17)*1.0173+1-(1.0182*D22*D2)</f>
         <v>2.0173000000000001</v>
       </c>
@@ -3456,13 +3536,13 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="13">
         <v>-1.5</v>
       </c>
       <c r="Q19" t="s">
         <v>12</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="24">
         <f>(R18-P18)*1.0173+1-(1.0182*G22*G2)</f>
         <v>3.0521992900000003</v>
       </c>
@@ -3513,13 +3593,13 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="13">
         <v>-5.0999999999999996</v>
       </c>
       <c r="Q20" t="s">
         <v>12</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="24">
         <f>(R19-P19)*1.0173+1-(1.0182*J22*J2)</f>
         <v>5.6309523377170017</v>
       </c>
@@ -3570,13 +3650,13 @@
       <c r="O21">
         <v>-2.8</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="13">
         <v>-12.899999999999999</v>
       </c>
       <c r="Q21" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="14">
         <f>-(P21)+1+(R20-P20)*1.0173-(1.0182*M22*M2)</f>
         <v>24.816597813159504</v>
       </c>
@@ -3626,9 +3706,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3640,7 +3720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C3D8-732F-45FC-8316-410DB9A7B05E}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3685,39 +3767,39 @@
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <f t="shared" ref="B2:I2" si="0">SUM(B3:B5)</f>
         <v>27</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <f t="array" ref="J2:J6">MMULT(B2:I6,TRANSPOSE(B7:I7))</f>
         <v>167</v>
       </c>
@@ -3755,13 +3837,13 @@
       <c r="I3" s="6">
         <v>11</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="22">
         <f>J4-1</f>
         <v>55</v>
       </c>
@@ -3798,13 +3880,13 @@
       <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="22">
         <f>J5-1</f>
         <v>62</v>
       </c>
@@ -3841,10 +3923,10 @@
       <c r="I5" s="6">
         <v>14</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>63</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="22"/>
       <c r="M5" t="b">
         <f>$J$3&lt;=$L$3</f>
         <v>1</v>
@@ -3878,13 +3960,13 @@
       <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="22">
         <v>5</v>
       </c>
       <c r="M6" t="b">
@@ -3918,7 +4000,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="6"/>
       <c r="M7" t="b">
         <f>$J$6=$L$6</f>
@@ -3935,7 +4017,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="6"/>
       <c r="M8">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -3952,7 +4034,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="6"/>
       <c r="M9">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -3961,12 +4043,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:I9">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:I2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3976,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,7 +4072,7 @@
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>105</v>
@@ -4017,46 +4099,88 @@
         <v>22</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2">
+        <v>4</v>
+      </c>
+      <c r="S1" s="2">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <f t="array" ref="B2:G7">IF(TRANSPOSE(O2:T7) &lt;= 15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
         <f t="array" ref="H2:H7">MMULT(B2:G7,TRANSPOSE(B8:G8))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="22">
         <v>1</v>
       </c>
       <c r="K2" t="e">
         <f ca="1">_xludf.MIN($J$8)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="N2" s="17">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>14</v>
+      </c>
+      <c r="R2" s="6">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -4077,23 +4201,44 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="22">
         <v>1</v>
       </c>
       <c r="K3">
         <f>COUNT($B$8:$G$8)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="L3" s="14"/>
+      <c r="N3" s="17">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6">
+        <v>23</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>24</v>
+      </c>
+      <c r="R3" s="6">
+        <v>13</v>
+      </c>
+      <c r="S3" s="6">
+        <v>22</v>
+      </c>
+      <c r="T3" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -4114,23 +4259,44 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="22">
         <v>1</v>
       </c>
       <c r="K4" t="b">
         <f t="array" ref="K4">($B$8:$G$8=0)+($B$8:$G$8=1)=1</f>
         <v>1</v>
       </c>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="L4" s="14"/>
+      <c r="N4" s="17">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6">
+        <v>14</v>
+      </c>
+      <c r="P4" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>60</v>
+      </c>
+      <c r="S4" s="6">
+        <v>19</v>
+      </c>
+      <c r="T4" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -4151,23 +4317,44 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="22">
         <v>1</v>
       </c>
       <c r="K5" t="b">
         <f t="array" ref="K5">$H$2:$H$7&gt;=$J$2:$J$7</f>
         <v>1</v>
       </c>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="L5" s="14"/>
+      <c r="N5" s="17">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6">
+        <v>18</v>
+      </c>
+      <c r="P5" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>60</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>55</v>
+      </c>
+      <c r="T5" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -4188,23 +4375,44 @@
       <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="22">
         <v>1</v>
       </c>
       <c r="K6">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
         <v>32767</v>
       </c>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="L6" s="14"/>
+      <c r="N6" s="17">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>10</v>
+      </c>
+      <c r="P6" s="6">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>19</v>
+      </c>
+      <c r="R6" s="6">
+        <v>55</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -4225,21 +4433,42 @@
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="22">
         <v>1</v>
       </c>
       <c r="K7">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N7" s="17">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6">
+        <v>32</v>
+      </c>
+      <c r="P7" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>20</v>
+      </c>
+      <c r="R7" s="6">
+        <v>17</v>
+      </c>
+      <c r="S7" s="6">
+        <v>12</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>1</v>
@@ -4260,22 +4489,27 @@
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
         <f>SUM(B8:G8)</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G7 A8:H8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:G7 A8:I8">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2 I8 H3:I7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:I2 H3:I7">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:T7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB489120-43AA-4AA9-BC0A-96D7C9710224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEBA15-C95E-4545-B506-75B623EC4676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E - 8'!$H$2</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1B - 3'!$J$8</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
@@ -213,7 +213,7 @@
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
@@ -223,7 +223,7 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">8290</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
@@ -810,42 +810,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1165,7 +1145,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,41 +1202,41 @@
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>7</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>12</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>20</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>-10</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>15</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>-7</v>
       </c>
       <c r="I2" s="15" cm="1">
         <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
-        <v>8577</v>
+        <v>8145</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="24"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1288,20 +1268,20 @@
         <v>0</v>
       </c>
       <c r="I3" s="15">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>100</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="24"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1333,20 +1313,20 @@
         <v>0</v>
       </c>
       <c r="I4" s="15">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>125</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="24"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1378,20 +1358,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="15">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="20">
         <v>75</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="24"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1423,20 +1403,20 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="20">
         <v>300</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="24"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1473,13 +1453,13 @@
       <c r="J7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18"/>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1511,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
-        <v>35</v>
-      </c>
-      <c r="N8" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="N8" s="23"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="24"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1562,16 +1542,16 @@
       <c r="J9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="22">
-        <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19</f>
+      <c r="K9" s="20">
+        <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19 + 0.034*F19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="24"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1608,10 +1588,10 @@
       <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="20">
         <v>200</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1644,15 +1624,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="15">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>200</v>
       </c>
-      <c r="N11" s="18"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1685,15 +1665,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="15">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="20">
         <v>190</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1728,15 +1708,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="20">
         <v>260</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1769,15 +1749,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="15">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="20">
         <v>600</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1815,10 +1795,10 @@
       <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <v>25</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1851,15 +1831,15 @@
         <v>0</v>
       </c>
       <c r="I16" s="15">
-        <v>1.575</v>
+        <v>1.53</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="20">
         <v>2</v>
       </c>
-      <c r="N16" s="18"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,16 +1868,16 @@
         <v>0.25</v>
       </c>
       <c r="I17" s="15">
-        <v>34.44</v>
+        <v>33.345000000000006</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="20">
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1926,33 +1906,33 @@
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <v>34.44</v>
+        <v>33.345000000000006</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="20">
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
-        <v>34.44</v>
-      </c>
-      <c r="N18" s="18"/>
+        <v>33.345000000000006</v>
+      </c>
+      <c r="N18" s="23"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C19" s="6">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D19" s="6">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E19" s="6">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F19" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6">
         <v>25</v>
@@ -1963,23 +1943,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="18"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="18"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="18"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="18"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="23" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1989,7 +1969,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="18"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -2010,7 +1990,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2023,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263368B4-FA2B-4D67-BCBF-3F3EBFF15146}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,10 +2046,10 @@
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>7</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>10</v>
       </c>
       <c r="D2" s="11">
@@ -2086,7 +2066,7 @@
       </c>
       <c r="H2" s="13">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
-        <v>10031.91489361702</v>
+        <v>10674.999999999993</v>
       </c>
       <c r="K2" t="e">
         <f ca="1">_xludf.MAX($H$2)</f>
@@ -2116,12 +2096,12 @@
         <v>0</v>
       </c>
       <c r="H3" s="13">
-        <v>450.00000000000011</v>
+        <v>450</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
         <v>450</v>
       </c>
       <c r="K3">
@@ -2157,12 +2137,12 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>700</v>
       </c>
       <c r="K4" t="b">
         <f>$H$10=$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2188,12 +2168,12 @@
         <v>0</v>
       </c>
       <c r="H5" s="13">
-        <v>428.72340425532821</v>
+        <v>-3.637978807091713E-12</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
         <v>0</v>
       </c>
       <c r="K5" t="b">
@@ -2224,12 +2204,12 @@
         <v>89</v>
       </c>
       <c r="H6" s="13">
-        <v>3.637978807091713E-12</v>
+        <v>2.1827872842550278E-11</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>0</v>
       </c>
       <c r="K6" t="b">
@@ -2260,17 +2240,17 @@
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <v>-1644.6808510638289</v>
+        <v>-977.7777777777851</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <f>$H$5&gt;=$J$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2278,10 +2258,10 @@
         <v>52</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>-12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2296,12 +2276,12 @@
         <v>8</v>
       </c>
       <c r="H8" s="13">
-        <v>4.5474735088646412E-13</v>
+        <v>-2722.2222222222135</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <v>0</v>
       </c>
       <c r="K8" t="b">
@@ -2332,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="13">
-        <v>5.6843418860808015E-14</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>0</v>
       </c>
       <c r="K9" t="b">
@@ -2368,38 +2348,38 @@
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <v>0</v>
+        <v>1.7053025658242404E-13</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <f>$H$8&lt;=$J$8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11">
-        <v>489.36170212765956</v>
+        <v>275.00000000000205</v>
       </c>
       <c r="C11">
-        <v>660.63829787234044</v>
+        <v>874.99999999999784</v>
       </c>
       <c r="D11">
-        <v>156.38297872340436</v>
+        <v>61.111111111111619</v>
       </c>
       <c r="E11">
-        <v>293.61702127659572</v>
+        <v>388.8888888888884</v>
       </c>
       <c r="F11">
-        <v>332.97872340425528</v>
+        <v>213.88888888889039</v>
       </c>
       <c r="G11">
-        <v>367.02127659574472</v>
+        <v>486.11111111110961</v>
       </c>
       <c r="K11" t="b">
         <f>$H$9=$J$9</f>
@@ -2419,7 +2399,7 @@
       </c>
       <c r="B13">
         <f>B11/C11</f>
-        <v>0.7407407407407407</v>
+        <v>0.31428571428571739</v>
       </c>
       <c r="K13">
         <f>{0;0;2;100;0;FALSE;FALSE;0.075;0;0;FALSE;30}</f>
@@ -2432,7 +2412,7 @@
       </c>
       <c r="B14">
         <f>D11/F11</f>
-        <v>0.46964856230031987</v>
+        <v>0.28571428571428609</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2441,12 +2421,12 @@
       </c>
       <c r="B15">
         <f>E11/G11</f>
-        <v>0.79999999999999982</v>
+        <v>0.80000000000000149</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2525,46 +2505,46 @@
       <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>-1</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>-3</v>
       </c>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
         <v>-3.1</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>-2.5</v>
       </c>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
         <v>-1.5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>1.5</v>
       </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23">
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
         <v>1.8</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <v>1.8</v>
       </c>
-      <c r="M2" s="23">
-        <v>1</v>
-      </c>
-      <c r="N2" s="23">
+      <c r="M2" s="21">
+        <v>1</v>
+      </c>
+      <c r="N2" s="21">
         <v>5</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <v>2.8</v>
       </c>
       <c r="P2" s="13">
@@ -2628,7 +2608,7 @@
       <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="22">
         <v>1</v>
       </c>
       <c r="S3">
@@ -2688,7 +2668,7 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="22">
         <v>1</v>
       </c>
       <c r="S4" t="b">
@@ -2748,7 +2728,7 @@
       <c r="Q5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="22">
         <v>1</v>
       </c>
       <c r="S5">
@@ -2808,7 +2788,7 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="22">
         <v>1</v>
       </c>
       <c r="S6">
@@ -2868,7 +2848,7 @@
       <c r="Q7" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2924,7 +2904,7 @@
       <c r="Q8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2980,7 +2960,7 @@
       <c r="Q9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3036,7 +3016,7 @@
       <c r="Q10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3092,7 +3072,7 @@
       <c r="Q11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3148,7 +3128,7 @@
       <c r="Q12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3204,7 +3184,7 @@
       <c r="Q13" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3260,7 +3240,7 @@
       <c r="Q14" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3316,7 +3296,7 @@
       <c r="Q15" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3372,7 +3352,7 @@
       <c r="Q16" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3428,7 +3408,7 @@
       <c r="Q17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="22">
         <f>D22*D2+1</f>
         <v>1</v>
       </c>
@@ -3485,7 +3465,7 @@
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="22">
         <f>(R17-P17)*1.0173+1-(1.0182*D22*D2)</f>
         <v>2.0173000000000001</v>
       </c>
@@ -3542,7 +3522,7 @@
       <c r="Q19" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="22">
         <f>(R18-P18)*1.0173+1-(1.0182*G22*G2)</f>
         <v>3.0521992900000003</v>
       </c>
@@ -3599,7 +3579,7 @@
       <c r="Q20" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="22">
         <f>(R19-P19)*1.0173+1-(1.0182*J22*J2)</f>
         <v>5.6309523377170017</v>
       </c>
@@ -3708,7 +3688,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B3:O21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3843,7 +3823,7 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <f>J4-1</f>
         <v>55</v>
       </c>
@@ -3886,7 +3866,7 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="20">
         <f>J5-1</f>
         <v>62</v>
       </c>
@@ -3926,7 +3906,7 @@
       <c r="J5" s="15">
         <v>63</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="20"/>
       <c r="M5" t="b">
         <f>$J$3&lt;=$L$3</f>
         <v>1</v>
@@ -3966,7 +3946,7 @@
       <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>5</v>
       </c>
       <c r="M6" t="b">
@@ -4043,12 +4023,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:I9">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:I2">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4060,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,10 +4127,10 @@
         <f t="array" ref="H2:H7">MMULT(B2:G7,TRANSPOSE(B8:G8))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>1</v>
       </c>
       <c r="K2" t="e">
@@ -4204,10 +4184,10 @@
       <c r="H3" s="15">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>1</v>
       </c>
       <c r="K3">
@@ -4262,10 +4242,10 @@
       <c r="H4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="20">
         <v>1</v>
       </c>
       <c r="K4" t="b">
@@ -4320,10 +4300,10 @@
       <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>1</v>
       </c>
       <c r="K5" t="b">
@@ -4378,10 +4358,10 @@
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>1</v>
       </c>
       <c r="K6">
@@ -4436,10 +4416,10 @@
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>1</v>
       </c>
       <c r="K7">
@@ -4489,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="I8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20">
         <f>SUM(B8:G8)</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G7 A8:I8">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:I2 H3:I7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsm44\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEBA15-C95E-4545-B506-75B623EC4676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B633D0-B01D-443A-A610-D000409424DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
@@ -239,19 +239,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -2003,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263368B4-FA2B-4D67-BCBF-3F3EBFF15146}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:T8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsm44\Desktop\trabalhoPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B633D0-B01D-443A-A610-D000409424DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B1702-74C9-4953-923E-A1A853F3A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,30 +239,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -1,240 +1,284 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B1702-74C9-4953-923E-A1A853F3A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15949688-396A-4502-AED0-E947402D46B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
-    <sheet name="2.3E - 8" sheetId="4" r:id="rId2"/>
-    <sheet name="2.3C - 3" sheetId="5" r:id="rId3"/>
-    <sheet name="9.1A - 7" sheetId="6" r:id="rId4"/>
-    <sheet name="9.1B - 3" sheetId="7" r:id="rId5"/>
+    <sheet name="2.3G - 3" sheetId="8" r:id="rId2"/>
+    <sheet name="2.3E - 8" sheetId="4" r:id="rId3"/>
+    <sheet name="2.3C - 3" sheetId="5" r:id="rId4"/>
+    <sheet name="9.1A - 7" sheetId="6" r:id="rId5"/>
+    <sheet name="9.1B - 3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3C - 3'!$B$22:$O$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3E - 8'!$B$11:$G$11</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'2.3C - 3'!$B$22:$O$22</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3E - 8'!$B$11:$G$11</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3G - 3'!$B$11:$E$11</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3C - 3'!$P$3:$P$21</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3E - 8'!$H$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'9.1A - 7'!$J$3</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'2.3C - 3'!$P$3:$P$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3E - 8'!$H$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3G - 3'!$F$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'9.1A - 7'!$J$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3E - 8'!$H$3</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'9.1B - 3'!$H$2:$H$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2.3E - 8'!$H$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3G - 3'!$B$11:$E$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'9.1B - 3'!$H$2:$H$7</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3E - 8'!$H$4</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'9.1A - 7'!$J$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2.3E - 8'!$H$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3G - 3'!$F$2</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'9.1A - 7'!$J$4</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A - 4'!$F$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3E - 8'!$H$5</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'9.1A - 7'!$J$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2.3E - 8'!$H$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3G - 3'!$F$6:$F$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'9.1A - 7'!$J$6</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3E - 8'!$H$6</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2.3E - 8'!$H$6</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3G - 3'!$F$6:$F$9</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'2.3E - 8'!$H$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'2.3E - 8'!$H$7</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'2.3E - 8'!$H$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'2.3E - 8'!$H$8</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'2.3A - 4'!$H$19</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'2.3E - 8'!$H$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'2.3E - 8'!$H$9</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A - 4'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A - 4'!$I$2</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3C - 3'!$R$21</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3E - 8'!$H$2</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1B - 3'!$J$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'2.3C - 3'!$R$21</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3E - 8'!$H$2</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3G - 3'!$F$2</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1A - 7'!$J$2</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'9.1B - 3'!$J$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A - 4'!$K$3:$K$6</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3C - 3'!$R$3:$R$21</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3E - 8'!$J$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'9.1A - 7'!$L$3</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'2.3C - 3'!$R$3:$R$21</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3E - 8'!$J$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3G - 3'!$H$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'9.1A - 7'!$L$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">"binário"</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A - 4'!$K$11:$K$14</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2.3E - 8'!$J$3</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binário"</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'9.1B - 3'!$J$2:$J$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2.3E - 8'!$J$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">"número inteiro"</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'9.1B - 3'!$J$2:$J$7</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3E - 8'!$J$4</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'9.1A - 7'!$L$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'2.3E - 8'!$J$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3G - 3'!$H$2</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'9.1A - 7'!$L$4</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A - 4'!$K$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3E - 8'!$J$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'9.1A - 7'!$L$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'2.3E - 8'!$J$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3G - 3'!$H$6:$H$9</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'9.1A - 7'!$L$6</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A - 4'!$K$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'2.3E - 8'!$J$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'2.3E - 8'!$J$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'2.3A - 4'!$K$9</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'2.3E - 8'!$J$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'2.3E - 8'!$J$7</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'2.3A - 4'!$K$7</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'2.3E - 8'!$J$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'2.3E - 8'!$J$8</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">'2.3A - 4'!$K$10</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'2.3E - 8'!$J$9</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'2.3E - 8'!$J$9</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A - 4'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">8290</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -266,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -599,13 +643,52 @@
   </si>
   <si>
     <t>EST CID 6</t>
+  </si>
+  <si>
+    <t>RDV</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>VALOR ANUNCIO</t>
+  </si>
+  <si>
+    <t>URBANA</t>
+  </si>
+  <si>
+    <t>SUBURBANA</t>
+  </si>
+  <si>
+    <t>RURAL</t>
+  </si>
+  <si>
+    <t>MIN VOTOS RDV</t>
+  </si>
+  <si>
+    <t>MIN VOTOS CAF</t>
+  </si>
+  <si>
+    <t>MIN VOTOS SPA</t>
+  </si>
+  <si>
+    <t>MIN VOTOS ISG</t>
+  </si>
+  <si>
+    <t>TOTAL DE ANUNCIOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +827,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -777,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -815,6 +906,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -825,7 +919,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1145,7 +1249,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="N23" sqref="N23:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,14 +1333,14 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="24"/>
+      <c r="Q2" s="25"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1276,12 +1380,12 @@
       <c r="K3" s="20">
         <v>100</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="25"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1321,12 +1425,12 @@
       <c r="K4" s="20">
         <v>125</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="25"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1366,12 +1470,12 @@
       <c r="K5" s="20">
         <v>75</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="25"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1411,12 +1515,12 @@
       <c r="K6" s="20">
         <v>300</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="24"/>
+      <c r="Q6" s="25"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1456,10 +1560,10 @@
       <c r="K7" s="20">
         <v>0</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1500,12 +1604,12 @@
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>34</v>
       </c>
-      <c r="N8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="25"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1546,12 +1650,12 @@
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19 + 0.034*F19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="24"/>
+      <c r="Q9" s="25"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1591,7 +1695,7 @@
       <c r="K10" s="20">
         <v>200</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1632,7 +1736,7 @@
       <c r="K11" s="20">
         <v>200</v>
       </c>
-      <c r="N11" s="23"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1673,7 +1777,7 @@
       <c r="K12" s="20">
         <v>190</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1716,7 +1820,7 @@
       <c r="K13" s="20">
         <v>260</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1757,7 +1861,7 @@
       <c r="K14" s="20">
         <v>600</v>
       </c>
-      <c r="N14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1798,7 +1902,7 @@
       <c r="K15" s="20">
         <v>25</v>
       </c>
-      <c r="N15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1839,7 +1943,7 @@
       <c r="K16" s="20">
         <v>2</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1877,7 +1981,7 @@
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1915,7 +2019,7 @@
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>33.345000000000006</v>
       </c>
-      <c r="N18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1943,23 +2047,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -1969,7 +2073,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1990,7 +2094,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2000,11 +2104,360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E1BABB-98B5-4512-BC62-C7BFCD4737CF}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="15">
+        <f t="array" ref="F2:F10">MMULT(B2:E10,TRANSPOSE(B11:E11))</f>
+        <v>25500</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="e">
+        <f ca="1">_xludf.MIN($F$2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3">
+        <v>-30000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>80000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>760000</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I3">
+        <f>COUNT($B$11:$E$11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6">
+        <v>60000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>410000</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20">
+        <f>25*10000</f>
+        <v>250000</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="array" ref="I4">$B$11:$E$11=INT($B$11:$E$11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="6">
+        <v>30000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-45000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-25000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>-160000</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I5" t="b">
+        <f>$F$10&lt;=$H$10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(B3:B5)</f>
+        <v>60000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>240000</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="20">
+        <f>SUM(H3:H5)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I6" t="b">
+        <f>$F$2&lt;=$H$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C3:C5)</f>
+        <v>65000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>260000</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="20">
+        <f>SUM(H3:H5)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="array" ref="I7">$F$6:$F$9&gt;=$H$6:$H$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>250000</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="20">
+        <f>SUM(H3:H5)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I8">
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(E3:E5)</f>
+        <v>65000</v>
+      </c>
+      <c r="F9" s="15">
+        <v>260000</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="20">
+        <f>SUM(H3:H5)*0.51</f>
+        <v>204000</v>
+      </c>
+      <c r="I9">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="20">
+        <f>H2/1500</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:H2 C3:H3">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H10 B11:F11">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263368B4-FA2B-4D67-BCBF-3F3EBFF15146}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2066,7 +2519,7 @@
       </c>
       <c r="H2" s="13">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
-        <v>10674.999999999993</v>
+        <v>10675.000000000005</v>
       </c>
       <c r="K2" t="e">
         <f ca="1">_xludf.MAX($H$2)</f>
@@ -2204,7 +2657,7 @@
         <v>89</v>
       </c>
       <c r="H6" s="13">
-        <v>2.1827872842550278E-11</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
@@ -2240,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <v>-977.7777777777851</v>
+        <v>-977.77777777777351</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -2276,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="13">
-        <v>-2722.2222222222135</v>
+        <v>-2722.2222222222258</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -2312,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="13">
-        <v>-2.8421709430404007E-14</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -2348,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <v>1.7053025658242404E-13</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
@@ -2364,22 +2817,22 @@
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11">
-        <v>275.00000000000205</v>
+        <v>274.99999999999864</v>
       </c>
       <c r="C11">
-        <v>874.99999999999784</v>
+        <v>875.00000000000136</v>
       </c>
       <c r="D11">
-        <v>61.111111111111619</v>
+        <v>61.111111111110823</v>
       </c>
       <c r="E11">
-        <v>388.8888888888884</v>
+        <v>388.8888888888892</v>
       </c>
       <c r="F11">
-        <v>213.88888888889039</v>
+        <v>213.88888888888775</v>
       </c>
       <c r="G11">
-        <v>486.11111111110961</v>
+        <v>486.11111111111228</v>
       </c>
       <c r="K11" t="b">
         <f>$H$9=$J$9</f>
@@ -2399,7 +2852,7 @@
       </c>
       <c r="B13">
         <f>B11/C11</f>
-        <v>0.31428571428571739</v>
+        <v>0.31428571428571223</v>
       </c>
       <c r="K13">
         <f>{0;0;2;100;0;FALSE;FALSE;0.075;0;0;FALSE;30}</f>
@@ -2412,7 +2865,7 @@
       </c>
       <c r="B14">
         <f>D11/F11</f>
-        <v>0.28571428571428609</v>
+        <v>0.28571428571428586</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2421,7 +2874,7 @@
       </c>
       <c r="B15">
         <f>E11/G11</f>
-        <v>0.80000000000000149</v>
+        <v>0.79999999999999871</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -3696,7 +4149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C3D8-732F-45FC-8316-410DB9A7B05E}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -4036,12 +4489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PlanilhaUnificada.xlsx
+++ b/PlanilhaUnificada.xlsx
@@ -8,75 +8,67 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\trabalhoPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15949688-396A-4502-AED0-E947402D46B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D76861-C868-4F88-9663-BF5EDB71FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.3A - 4" sheetId="3" r:id="rId1"/>
     <sheet name="2.3G - 3" sheetId="8" r:id="rId2"/>
     <sheet name="2.3E - 8" sheetId="4" r:id="rId3"/>
-    <sheet name="2.3C - 3" sheetId="5" r:id="rId4"/>
-    <sheet name="9.1A - 7" sheetId="6" r:id="rId5"/>
-    <sheet name="9.1B - 3" sheetId="7" r:id="rId6"/>
+    <sheet name="9.1A - 7" sheetId="6" r:id="rId4"/>
+    <sheet name="9.1B - 3" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'2.3C - 3'!$B$22:$O$22</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'2.3E - 8'!$B$11:$G$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'2.3G - 3'!$B$11:$E$11</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'2.3C - 3'!$P$3:$P$21</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'2.3E - 8'!$H$10</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2.3G - 3'!$F$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'9.1A - 7'!$J$3</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'9.1A - 7'!$J$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'9.1B - 3'!$B$8:$G$8</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$18</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$E$19</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'2.3E - 8'!$H$3</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2.3G - 3'!$B$11:$E$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'9.1B - 3'!$H$2:$H$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'9.1A - 7'!$B$7:$I$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'9.1B - 3'!$H$2:$H$7</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'2.3A - 4'!$B$19:$H$19</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'2.3E - 8'!$H$4</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'2.3G - 3'!$F$2</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'9.1A - 7'!$J$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'9.1A - 7'!$J$4</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'2.3A - 4'!$F$19</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'2.3E - 8'!$H$5</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'2.3G - 3'!$F$6:$F$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'9.1A - 7'!$J$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'9.1A - 7'!$J$6</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'2.3A - 4'!$G$19</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'2.3E - 8'!$H$6</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'2.3G - 3'!$F$6:$F$9</definedName>
@@ -89,94 +81,82 @@
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'2.3A - 4'!$I$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">8</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'2.3A - 4'!$I$2</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'2.3C - 3'!$R$21</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'2.3E - 8'!$H$2</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'2.3G - 3'!$F$2</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1A - 7'!$J$2</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'9.1B - 3'!$J$8</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'9.1A - 7'!$J$2</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'9.1B - 3'!$J$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">5</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">5</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
@@ -188,25 +168,24 @@
     <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2.3A - 4'!$K$3:$K$6</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'2.3C - 3'!$R$3:$R$21</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'2.3E - 8'!$J$10</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2.3G - 3'!$H$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'9.1A - 7'!$L$3</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'9.1A - 7'!$L$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"binário"</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">'2.3A - 4'!$K$17</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2.3A - 4'!$K$11:$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'2.3E - 8'!$J$3</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">"número inteiro"</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">"binário"</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'9.1B - 3'!$J$2:$J$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">"binário"</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'9.1B - 3'!$J$2:$J$7</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">"número inteiro"</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'2.3E - 8'!$J$4</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'2.3G - 3'!$H$2</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'9.1A - 7'!$L$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'9.1A - 7'!$L$4</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'2.3A - 4'!$K$8</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'2.3E - 8'!$J$5</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'2.3G - 3'!$H$6:$H$9</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'9.1A - 7'!$L$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'9.1A - 7'!$L$6</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'2.3A - 4'!$K$15</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">'2.3E - 8'!$J$6</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">0</definedName>
@@ -218,65 +197,55 @@
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">'2.3E - 8'!$J$9</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'2.3A - 4'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">8290</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -310,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -484,108 +453,6 @@
   </si>
   <si>
     <t>Razão de mistura A/B II</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Valor do empréstimo Z-1</t>
-  </si>
-  <si>
-    <t>Valor do empréstimo Z-2</t>
-  </si>
-  <si>
-    <t>Valor do empréstimo Z-3</t>
-  </si>
-  <si>
-    <t>Valor do empréstimo Z-4</t>
-  </si>
-  <si>
-    <t>Participação Total P1-1</t>
-  </si>
-  <si>
-    <t>Participação Total P2-1</t>
-  </si>
-  <si>
-    <t>Participação Total P1-2</t>
-  </si>
-  <si>
-    <t>Participação Total P2-2</t>
-  </si>
-  <si>
-    <t>Participação Total P1-3</t>
-  </si>
-  <si>
-    <t>Participação Total P2-3</t>
-  </si>
-  <si>
-    <t>Participação Total P1-4</t>
-  </si>
-  <si>
-    <t>Participação Total P2-4</t>
-  </si>
-  <si>
-    <t>Participação Total P1-5</t>
-  </si>
-  <si>
-    <t>Participação Total P2-5</t>
-  </si>
-  <si>
-    <t>Valor total P1</t>
-  </si>
-  <si>
-    <t>Valor total P2</t>
-  </si>
-  <si>
-    <t>Valor total P3</t>
-  </si>
-  <si>
-    <t>Valor total P4</t>
-  </si>
-  <si>
-    <t>Valor total P5</t>
-  </si>
-  <si>
-    <t>P1-1</t>
-  </si>
-  <si>
-    <t>P2-1</t>
-  </si>
-  <si>
-    <t>Z-1</t>
-  </si>
-  <si>
-    <t>P1-2</t>
-  </si>
-  <si>
-    <t>P2-2</t>
-  </si>
-  <si>
-    <t>Z-2</t>
-  </si>
-  <si>
-    <t>P1-3</t>
-  </si>
-  <si>
-    <t>P2-3</t>
-  </si>
-  <si>
-    <t>Z-3</t>
-  </si>
-  <si>
-    <t>P1-4</t>
-  </si>
-  <si>
-    <t>P2-4</t>
-  </si>
-  <si>
-    <t>Z-4</t>
-  </si>
-  <si>
-    <t>P1-5</t>
-  </si>
-  <si>
-    <t>P2-5</t>
   </si>
   <si>
     <t>AFT</t>
@@ -688,7 +555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,12 +612,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -893,20 +754,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,12 +779,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1248,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36C73D-5DDD-4F70-818B-6E24CF2FC329}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:N24"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,41 +1161,41 @@
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>7</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>12</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>20</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>-10</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>15</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>-7</v>
       </c>
-      <c r="I2" s="15" cm="1">
+      <c r="I2" s="14" cm="1">
         <f t="array" ref="I2:I18">MMULT(B2:H18,TRANSPOSE(B19:H19))</f>
         <v>8145</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="24"/>
       <c r="R2" t="e">
         <f ca="1">_xludf.MIN($I$2)</f>
         <v>#NAME?</v>
@@ -1371,21 +1226,21 @@
       <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>131</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <v>100</v>
       </c>
-      <c r="N3" s="24"/>
+      <c r="N3" s="23"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="24"/>
       <c r="R3">
         <f>COUNT($B$19:$H$19)</f>
         <v>7</v>
@@ -1416,21 +1271,21 @@
       <c r="H4" s="6">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>129</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <v>125</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="24"/>
       <c r="R4" t="b">
         <f t="array" ref="R4">$B$19:$E$19&gt;=$K$3:$K$6</f>
         <v>1</v>
@@ -1461,21 +1316,21 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>207</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>75</v>
       </c>
-      <c r="N5" s="24"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="24"/>
       <c r="R5" t="b">
         <f t="array" ref="R5">$B$19:$E$19&lt;=$K$11:$K$14</f>
         <v>1</v>
@@ -1506,21 +1361,21 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>301</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>300</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="24"/>
       <c r="R6" t="b">
         <f t="array" ref="R6">$B$19:$H$19=INT($B$19:$H$19)</f>
         <v>1</v>
@@ -1551,19 +1406,19 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>25</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24"/>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
       <c r="R7" t="b">
         <f>$F$19=$K$8</f>
         <v>1</v>
@@ -1594,22 +1449,22 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>34</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f>(1.3*$B$19+1.2*$C$19+0.5*$D$19+1.4*$E$19)/25</f>
         <v>34</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="24"/>
       <c r="R8" t="b">
         <f>$G$19&lt;=$K$15</f>
         <v>1</v>
@@ -1640,22 +1495,22 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>25</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f>0.023*B19+0.034*C19+0.046*D19+0.023*E19 + 0.034*F19</f>
         <v>25</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="24"/>
       <c r="R9" t="b">
         <f>$G$19=$K$9</f>
         <v>1</v>
@@ -1686,16 +1541,16 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>200</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="3"/>
       <c r="R10" t="b">
         <f>$G$19&gt;=$K$7</f>
@@ -1727,16 +1582,16 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>131</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>200</v>
       </c>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="3"/>
       <c r="R11" t="b">
         <f>$H$19&lt;=$K$10</f>
@@ -1768,16 +1623,16 @@
       <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>129</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>190</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3"/>
@@ -1811,16 +1666,16 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <v>207</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>260</v>
       </c>
-      <c r="N13" s="24"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="3"/>
       <c r="R13" t="b">
         <f>$K$18&lt;=$K$17</f>
@@ -1852,16 +1707,16 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>301</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>600</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="3"/>
       <c r="R14">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -1893,16 +1748,16 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>25</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="3"/>
       <c r="R15">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -1934,16 +1789,16 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>1.53</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>2</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -1971,17 +1826,17 @@
       <c r="H17" s="6">
         <v>0.25</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>33.345000000000006</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f>0.85*(50+(H19*H17))</f>
         <v>42.5</v>
       </c>
-      <c r="N17" s="24"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2009,17 +1864,17 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <v>33.345000000000006</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f>B18*B19+C18*C19+D18*D19+E18*E19+F18*F19+G18*G19</f>
         <v>33.345000000000006</v>
       </c>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2047,23 +1902,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="N19" s="24"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N20" s="24"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N21" s="24"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N22" s="24"/>
+      <c r="N22" s="23"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="23" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="4"/>
@@ -2073,7 +1928,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="N24" s="24"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -2094,7 +1949,7 @@
     <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:H16">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2108,7 +1963,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,16 +1980,16 @@
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2142,33 +1997,33 @@
       <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="18">
+        <v>81</v>
+      </c>
+      <c r="B2" s="17">
         <v>1500</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>1500</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>1500</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>1500</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f t="array" ref="F2:F10">MMULT(B2:E10,TRANSPOSE(B11:E11))</f>
         <v>25500</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>100000</v>
       </c>
       <c r="I2" t="e">
@@ -2178,7 +2033,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>-30000</v>
@@ -2192,13 +2047,13 @@
       <c r="E3" s="6">
         <v>90000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>760000</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>100000</v>
       </c>
       <c r="I3">
@@ -2208,7 +2063,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6">
         <v>60000</v>
@@ -2222,13 +2077,13 @@
       <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>410000</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f>25*10000</f>
         <v>250000</v>
       </c>
@@ -2239,7 +2094,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6">
         <v>30000</v>
@@ -2253,13 +2108,13 @@
       <c r="E5" s="6">
         <v>-25000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>-160000</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>50000</v>
       </c>
       <c r="I5" t="b">
@@ -2269,7 +2124,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(B3:B5)</f>
@@ -2284,13 +2139,13 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>240000</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f>SUM(H3:H5)*0.51</f>
         <v>204000</v>
       </c>
@@ -2301,7 +2156,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -2316,13 +2171,13 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>260000</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f>SUM(H3:H5)*0.51</f>
         <v>204000</v>
       </c>
@@ -2333,7 +2188,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -2347,13 +2202,13 @@
       <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>250000</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f>SUM(H3:H5)*0.51</f>
         <v>204000</v>
       </c>
@@ -2364,7 +2219,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -2379,13 +2234,13 @@
         <f>SUM(E3:E5)</f>
         <v>65000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>260000</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f>SUM(H3:H5)*0.51</f>
         <v>204000</v>
       </c>
@@ -2396,7 +2251,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -2410,13 +2265,13 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>17</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>H2/1500</f>
         <v>66.666666666666671</v>
       </c>
@@ -2439,12 +2294,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H2 C3:H3">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:H10 B11:F11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2456,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263368B4-FA2B-4D67-BCBF-3F3EBFF15146}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,10 +2354,10 @@
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>7</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>10</v>
       </c>
       <c r="D2" s="11">
@@ -2517,7 +2372,7 @@
       <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <f t="array" ref="H2:H10">MMULT(B2:G10,TRANSPOSE(B11:G11))</f>
         <v>10675.000000000005</v>
       </c>
@@ -2548,13 +2403,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>450</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>450</v>
       </c>
       <c r="K3">
@@ -2584,13 +2439,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>700</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>700</v>
       </c>
       <c r="K4" t="b">
@@ -2620,13 +2475,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>-3.637978807091713E-12</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
       <c r="K5" t="b">
@@ -2656,13 +2511,13 @@
       <c r="G6">
         <v>89</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>0</v>
       </c>
       <c r="K6" t="b">
@@ -2692,13 +2547,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>-977.77777777777351</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>0</v>
       </c>
       <c r="K7" t="b">
@@ -2728,13 +2583,13 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>-2722.2222222222258</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>0</v>
       </c>
       <c r="K8" t="b">
@@ -2764,13 +2619,13 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>-5.6843418860808015E-14</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>0</v>
       </c>
       <c r="K9" t="b">
@@ -2800,13 +2655,13 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1.1368683772161603E-13</v>
       </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>0</v>
       </c>
       <c r="K10" t="b">
@@ -2879,7 +2734,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G11">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2888,1273 +2743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899204E-A298-4429-B21E-01E72C42F145}">
-  <dimension ref="A1:S22"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="21">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>-3.1</v>
-      </c>
-      <c r="F2" s="21">
-        <v>-2.5</v>
-      </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="21">
-        <v>-1.5</v>
-      </c>
-      <c r="I2" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="J2" s="21">
-        <v>1</v>
-      </c>
-      <c r="K2" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="L2" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="M2" s="21">
-        <v>1</v>
-      </c>
-      <c r="N2" s="21">
-        <v>5</v>
-      </c>
-      <c r="O2" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="P2" s="13">
-        <f t="array" ref="P2:P21">MMULT(B2:O21,TRANSPOSE(B22:O22))</f>
-        <v>12.899999999999999</v>
-      </c>
-      <c r="S2" t="e">
-        <f ca="1">_xludf.MAX($R$21)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="22">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <f>COUNT($B$22:$O$22)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="22">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <f t="array" ref="S4">$P$3:$P$21&lt;=$R$3:$R$21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="22">
-        <f>D22*D2+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3.1</v>
-      </c>
-      <c r="F18">
-        <v>2.5</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="22">
-        <f>(R17-P17)*1.0173+1-(1.0182*D22*D2)</f>
-        <v>2.0173000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>3.1</v>
-      </c>
-      <c r="F19">
-        <v>2.5</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1.5</v>
-      </c>
-      <c r="I19">
-        <v>-1.5</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="22">
-        <f>(R18-P18)*1.0173+1-(1.0182*G22*G2)</f>
-        <v>3.0521992900000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>3.1</v>
-      </c>
-      <c r="F20">
-        <v>2.5</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1.5</v>
-      </c>
-      <c r="I20">
-        <v>-1.5</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>-1.8</v>
-      </c>
-      <c r="L20">
-        <v>-1.8</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="13">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="22">
-        <f>(R19-P19)*1.0173+1-(1.0182*J22*J2)</f>
-        <v>5.6309523377170017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3.1</v>
-      </c>
-      <c r="F21">
-        <v>2.5</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1.5</v>
-      </c>
-      <c r="I21">
-        <v>-1.5</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>-1.8</v>
-      </c>
-      <c r="L21">
-        <v>-1.8</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>-5</v>
-      </c>
-      <c r="O21">
-        <v>-2.8</v>
-      </c>
-      <c r="P21" s="13">
-        <v>-12.899999999999999</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="14">
-        <f>-(P21)+1+(R20-P20)*1.0173-(1.0182*M22*M2)</f>
-        <v>24.816597813159504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B3:O21">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F773C3D8-732F-45FC-8316-410DB9A7B05E}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4166,28 +2759,28 @@
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4198,41 +2791,41 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="16">
+        <v>66</v>
+      </c>
+      <c r="B2" s="15">
         <f t="shared" ref="B2:I2" si="0">SUM(B3:B5)</f>
         <v>27</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f t="array" ref="J2:J6">MMULT(B2:I6,TRANSPOSE(B7:I7))</f>
         <v>167</v>
       </c>
@@ -4244,7 +2837,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -4270,13 +2863,13 @@
       <c r="I3" s="6">
         <v>11</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <f>J4-1</f>
         <v>55</v>
       </c>
@@ -4287,7 +2880,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -4313,13 +2906,13 @@
       <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <f>J5-1</f>
         <v>62</v>
       </c>
@@ -4330,7 +2923,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6">
         <v>20</v>
@@ -4356,10 +2949,10 @@
       <c r="I5" s="6">
         <v>14</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>63</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="19"/>
       <c r="M5" t="b">
         <f>$J$3&lt;=$L$3</f>
         <v>1</v>
@@ -4367,7 +2960,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -4393,13 +2986,13 @@
       <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>5</v>
       </c>
       <c r="M6" t="b">
@@ -4433,7 +3026,7 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="6"/>
       <c r="M7" t="b">
         <f>$J$6=$L$6</f>
@@ -4450,7 +3043,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="6"/>
       <c r="M8">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
@@ -4467,7 +3060,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="6"/>
       <c r="M9">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
@@ -4489,12 +3082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E9EC7E-870E-4CD8-BCE8-9BFD3632A58A}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,22 +3101,22 @@
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -4554,43 +3147,43 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
         <f t="array" ref="B2:G7">IF(TRANSPOSE(O2:T7) &lt;= 15,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
         <f t="array" ref="H2:H7">MMULT(B2:G7,TRANSPOSE(B8:G8))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>1</v>
       </c>
       <c r="K2" t="e">
         <f ca="1">_xludf.MIN($J$8)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <v>1</v>
       </c>
       <c r="O2" s="6">
@@ -4613,7 +3206,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -4634,21 +3227,21 @@
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>1</v>
       </c>
       <c r="K3">
         <f>COUNT($B$8:$G$8)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="N3" s="17">
+      <c r="L3" s="13"/>
+      <c r="N3" s="16">
         <v>2</v>
       </c>
       <c r="O3" s="6">
@@ -4671,7 +3264,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -4692,21 +3285,21 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <v>1</v>
       </c>
       <c r="K4" t="b">
         <f t="array" ref="K4">($B$8:$G$8=0)+($B$8:$G$8=1)=1</f>
         <v>1</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="N4" s="17">
+      <c r="L4" s="13"/>
+      <c r="N4" s="16">
         <v>3</v>
       </c>
       <c r="O4" s="6">
@@ -4729,7 +3322,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -4750,21 +3343,21 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>1</v>
       </c>
       <c r="K5" t="b">
         <f t="array" ref="K5">$H$2:$H$7&gt;=$J$2:$J$7</f>
         <v>1</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="N5" s="17">
+      <c r="L5" s="13"/>
+      <c r="N5" s="16">
         <v>4</v>
       </c>
       <c r="O5" s="6">
@@ -4787,7 +3380,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -4808,21 +3401,21 @@
       <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>1</v>
       </c>
       <c r="K6">
         <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
         <v>32767</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="N6" s="17">
+      <c r="L6" s="13"/>
+      <c r="N6" s="16">
         <v>5</v>
       </c>
       <c r="O6" s="6">
@@ -4845,7 +3438,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -4866,20 +3459,20 @@
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>1</v>
       </c>
       <c r="K7">
         <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>6</v>
       </c>
       <c r="O7" s="6">
@@ -4922,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
         <f>SUM(B8:G8)</f>
         <v>2</v>
       </c>
